--- a/Village Panchayat/New Microsoft Excel Worksheet.xlsx
+++ b/Village Panchayat/New Microsoft Excel Worksheet.xlsx
@@ -340,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,6 +367,30 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.4069444444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Village Panchayat/New Microsoft Excel Worksheet.xlsx
+++ b/Village Panchayat/New Microsoft Excel Worksheet.xlsx
@@ -340,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,6 +391,78 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Village Panchayat/New Microsoft Excel Worksheet.xlsx
+++ b/Village Panchayat/New Microsoft Excel Worksheet.xlsx
@@ -340,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +463,30 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.40625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
